--- a/activite-3/data/effect_sizes_zhang_2025.xlsx
+++ b/activite-3/data/effect_sizes_zhang_2025.xlsx
@@ -370,12 +370,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>cohen_d_var</t>
+          <t>cohen_var</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>cohen_d_se</t>
+          <t>cohen_se</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -385,12 +385,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>hedges_g_var</t>
+          <t>hedges_var</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>hedges_g_se</t>
+          <t>hedges_se</t>
         </is>
       </c>
     </row>
